--- a/biology/Zoologie/Hirundinidae/Hirundinidae.xlsx
+++ b/biology/Zoologie/Hirundinidae/Hirundinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hirundinidae (ou hirundinidés en français ou hirondelles) sont une famille de passereaux constituée de 19 genres et de 88 espèces de pseudolangrayens et d'hirondelles.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces oiseaux sont de taille petite à moyenne (de 11 à 22 cm) se nourrissant en vol. Leur corps fuselé porte de longues ailes, et beaucoup d'espèces ont la queue fourchue.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitats et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosmopolites, ils fréquentent une grande variété de milieux, des régions semi-arides aux forêts, souvent près de l'eau. Ils construisent des nids de terre ou de sable et d'algues agglomérés avec un mélange de mucus et parfois des plumes, fixés sur des parois ou cavités de falaises, grottes, à l'exception d'une espèce (Riparia riparia) qui creuse des terriers dans des parois de sable ou de terre meuble. 
 </t>
@@ -573,7 +589,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pseudochelidon Hartlaub, 1861 (2 espèces)
 Psalidoprocne Cabanis, 1850 (5 espèces)
@@ -623,7 +641,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Espèces par ordre phylogénique
